--- a/data/trans_orig/P36BPD02_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD02_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B4DCFA9-0EF5-40FB-A825-994028F81CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC2B1C6-D303-4E4F-8DBD-C63DA8F25558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A259918-5214-4458-8CC6-F5F400644F3D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78C47753-6537-4159-BDF6-B92246630B30}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,334 +74,334 @@
     <t>16,05%</t>
   </si>
   <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>Dos o tres cucharadas</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>Cuatro o más cucharadas</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
     <t>13,27%</t>
   </si>
   <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>Dos o tres cucharadas</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>Cuatro o más cucharadas</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
   </si>
   <si>
     <t>45,96%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
   </si>
   <si>
     <t>46,44%</t>
   </si>
   <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
+    <t>43,73%</t>
   </si>
   <si>
     <t>38,46%</t>
   </si>
   <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
   </si>
   <si>
     <t>39,17%</t>
   </si>
   <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BEA743-07A8-48EF-BB7D-9FE892603BCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020ADDDC-7109-42A8-9BE5-D6054874F7D4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1143,7 +1143,7 @@
         <v>290</v>
       </c>
       <c r="D8" s="7">
-        <v>295886</v>
+        <v>295887</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1296,7 +1296,7 @@
         <v>1918</v>
       </c>
       <c r="D11" s="7">
-        <v>2041624</v>
+        <v>2041625</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1406,10 +1406,10 @@
         <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>477</v>
@@ -1418,13 +1418,13 @@
         <v>337267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>809</v>
@@ -1433,13 +1433,13 @@
         <v>661101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1454,13 +1454,13 @@
         <v>243414</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>389</v>
@@ -1469,13 +1469,13 @@
         <v>273746</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>637</v>
@@ -1484,13 +1484,13 @@
         <v>517160</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1558,10 +1558,10 @@
         <v>466158</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>98</v>
@@ -1570,7 +1570,7 @@
         <v>770</v>
       </c>
       <c r="I16" s="7">
-        <v>543305</v>
+        <v>543304</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>99</v>
@@ -1624,13 +1624,13 @@
         <v>1679293</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>3934</v>
@@ -1639,13 +1639,13 @@
         <v>3184316</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1723,7 +1723,7 @@
         <v>5149</v>
       </c>
       <c r="I19" s="7">
-        <v>3653497</v>
+        <v>3653496</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>

--- a/data/trans_orig/P36BPD02_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD02_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC2B1C6-D303-4E4F-8DBD-C63DA8F25558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE920FC-14DD-4198-B735-EB8993765E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{78C47753-6537-4159-BDF6-B92246630B30}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{89F57A01-6981-45F2-9EB0-FE6114AF6A50}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="125">
   <si>
     <t>Población según la cantidad de aceite de oliva que consumen al día en 2023 (Tasa respuesta: 96,09%)</t>
   </si>
@@ -71,337 +71,343 @@
     <t>Menos de dos cucharadas</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
   </si>
   <si>
     <t>18,59%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
   </si>
   <si>
     <t>Dos o tres cucharadas</t>
   </si>
   <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>Cuatro o más cucharadas</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
   </si>
   <si>
     <t>48,01%</t>
   </si>
   <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>Cuatro o más cucharadas</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020ADDDC-7109-42A8-9BE5-D6054874F7D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612A9C38-065F-4F79-9CF6-6570B37E7DE7}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -937,7 +943,7 @@
         <v>112</v>
       </c>
       <c r="D4" s="7">
-        <v>81030</v>
+        <v>73779</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,7 +958,7 @@
         <v>259</v>
       </c>
       <c r="I4" s="7">
-        <v>146548</v>
+        <v>132212</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,7 +973,7 @@
         <v>371</v>
       </c>
       <c r="N4" s="7">
-        <v>227579</v>
+        <v>205991</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,7 +994,7 @@
         <v>292</v>
       </c>
       <c r="D5" s="7">
-        <v>227442</v>
+        <v>209532</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,7 +1009,7 @@
         <v>660</v>
       </c>
       <c r="I5" s="7">
-        <v>393388</v>
+        <v>351382</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,7 +1024,7 @@
         <v>952</v>
       </c>
       <c r="N5" s="7">
-        <v>620830</v>
+        <v>560914</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,7 +1045,7 @@
         <v>244</v>
       </c>
       <c r="D6" s="7">
-        <v>196345</v>
+        <v>196611</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1054,7 +1060,7 @@
         <v>415</v>
       </c>
       <c r="I6" s="7">
-        <v>248402</v>
+        <v>227644</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1069,7 +1075,7 @@
         <v>659</v>
       </c>
       <c r="N6" s="7">
-        <v>444747</v>
+        <v>424256</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1090,7 +1096,7 @@
         <v>648</v>
       </c>
       <c r="D7" s="7">
-        <v>504817</v>
+        <v>479923</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1105,7 +1111,7 @@
         <v>1334</v>
       </c>
       <c r="I7" s="7">
-        <v>788338</v>
+        <v>711239</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1120,7 +1126,7 @@
         <v>1982</v>
       </c>
       <c r="N7" s="7">
-        <v>1293156</v>
+        <v>1191161</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1143,7 +1149,7 @@
         <v>290</v>
       </c>
       <c r="D8" s="7">
-        <v>295887</v>
+        <v>277217</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1158,7 +1164,7 @@
         <v>390</v>
       </c>
       <c r="I8" s="7">
-        <v>309246</v>
+        <v>279097</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1173,7 +1179,7 @@
         <v>680</v>
       </c>
       <c r="N8" s="7">
-        <v>605133</v>
+        <v>556315</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1194,7 +1200,7 @@
         <v>893</v>
       </c>
       <c r="D9" s="7">
-        <v>953746</v>
+        <v>896268</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1209,7 +1215,7 @@
         <v>1280</v>
       </c>
       <c r="I9" s="7">
-        <v>948637</v>
+        <v>869900</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1224,7 +1230,7 @@
         <v>2173</v>
       </c>
       <c r="N9" s="7">
-        <v>1902384</v>
+        <v>1766168</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1245,7 +1251,7 @@
         <v>735</v>
       </c>
       <c r="D10" s="7">
-        <v>791992</v>
+        <v>992268</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1260,7 +1266,7 @@
         <v>1158</v>
       </c>
       <c r="I10" s="7">
-        <v>908751</v>
+        <v>1013053</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1275,7 +1281,7 @@
         <v>1893</v>
       </c>
       <c r="N10" s="7">
-        <v>1700743</v>
+        <v>2005321</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1296,7 +1302,7 @@
         <v>1918</v>
       </c>
       <c r="D11" s="7">
-        <v>2041625</v>
+        <v>2165753</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1311,7 +1317,7 @@
         <v>2828</v>
       </c>
       <c r="I11" s="7">
-        <v>2166635</v>
+        <v>2162050</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1326,7 +1332,7 @@
         <v>4746</v>
       </c>
       <c r="N11" s="7">
-        <v>4208260</v>
+        <v>4327803</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1349,7 +1355,7 @@
         <v>86</v>
       </c>
       <c r="D12" s="7">
-        <v>89242</v>
+        <v>88884</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1364,7 +1370,7 @@
         <v>121</v>
       </c>
       <c r="I12" s="7">
-        <v>87510</v>
+        <v>80431</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1379,7 +1385,7 @@
         <v>207</v>
       </c>
       <c r="N12" s="7">
-        <v>176751</v>
+        <v>169315</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1400,7 +1406,7 @@
         <v>332</v>
       </c>
       <c r="D13" s="7">
-        <v>323834</v>
+        <v>304614</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -1415,7 +1421,7 @@
         <v>477</v>
       </c>
       <c r="I13" s="7">
-        <v>337267</v>
+        <v>308724</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -1430,7 +1436,7 @@
         <v>809</v>
       </c>
       <c r="N13" s="7">
-        <v>661101</v>
+        <v>613338</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -1451,7 +1457,7 @@
         <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>243414</v>
+        <v>237671</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1466,7 +1472,7 @@
         <v>389</v>
       </c>
       <c r="I14" s="7">
-        <v>273746</v>
+        <v>257159</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1481,7 +1487,7 @@
         <v>637</v>
       </c>
       <c r="N14" s="7">
-        <v>517160</v>
+        <v>494831</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1502,7 +1508,7 @@
         <v>666</v>
       </c>
       <c r="D15" s="7">
-        <v>656490</v>
+        <v>631169</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1517,7 +1523,7 @@
         <v>987</v>
       </c>
       <c r="I15" s="7">
-        <v>698523</v>
+        <v>646314</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1532,7 +1538,7 @@
         <v>1653</v>
       </c>
       <c r="N15" s="7">
-        <v>1355013</v>
+        <v>1277483</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1555,46 +1561,46 @@
         <v>488</v>
       </c>
       <c r="D16" s="7">
-        <v>466158</v>
+        <v>439881</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>770</v>
       </c>
       <c r="I16" s="7">
-        <v>543304</v>
+        <v>491740</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>1258</v>
       </c>
       <c r="N16" s="7">
-        <v>1009463</v>
+        <v>931621</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,46 +1612,46 @@
         <v>1517</v>
       </c>
       <c r="D17" s="7">
-        <v>1505022</v>
+        <v>1410414</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>2417</v>
       </c>
       <c r="I17" s="7">
-        <v>1679293</v>
+        <v>1530006</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>3934</v>
       </c>
       <c r="N17" s="7">
-        <v>3184316</v>
+        <v>2940420</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,46 +1663,46 @@
         <v>1227</v>
       </c>
       <c r="D18" s="7">
-        <v>1231751</v>
+        <v>1426551</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>1962</v>
       </c>
       <c r="I18" s="7">
-        <v>1430899</v>
+        <v>1497857</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>3189</v>
       </c>
       <c r="N18" s="7">
-        <v>2662651</v>
+        <v>2924407</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,7 +1714,7 @@
         <v>3232</v>
       </c>
       <c r="D19" s="7">
-        <v>3202932</v>
+        <v>3276845</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1723,7 +1729,7 @@
         <v>5149</v>
       </c>
       <c r="I19" s="7">
-        <v>3653496</v>
+        <v>3519603</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1738,7 +1744,7 @@
         <v>8381</v>
       </c>
       <c r="N19" s="7">
-        <v>6856429</v>
+        <v>6796448</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1752,7 +1758,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
